--- a/rsrc/overview.xlsx
+++ b/rsrc/overview.xlsx
@@ -22,19 +22,19 @@
     <t>API Levels</t>
   </si>
   <si>
-    <t>FaustWebAudio.d.ts</t>
+    <t>FaustWebAudioDsp.ts</t>
   </si>
   <si>
     <t>Faust Audio Nodes Instance</t>
   </si>
   <si>
-    <t>FaustGenerator.d.ts</t>
+    <t>FaustDspGenerator.ts</t>
   </si>
   <si>
     <t>Faust Wasm Instance</t>
   </si>
   <si>
-    <t>FaustCompiler.d.ts</t>
+    <t>FaustCompiler.ts</t>
   </si>
   <si>
     <t>Faust Compiler Javascript Interface</t>
@@ -68,9 +68,9 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <i val="1"/>
